--- a/Silesians-Data.xlsx
+++ b/Silesians-Data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\UWF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\maps-of-ethnicities-in-poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A99217-881B-44D8-AD03-C19FC39844C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E61DF2-0549-494A-9F2A-5E0514CDDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
+    <workbookView xWindow="24420" yWindow="11280" windowWidth="7740" windowHeight="7500" activeTab="2" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Śląskie" sheetId="1" r:id="rId1"/>
     <sheet name="Opolskie" sheetId="2" r:id="rId2"/>
+    <sheet name="Dolnośląskie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="411">
   <si>
     <t>Gmina</t>
   </si>
@@ -763,6 +764,513 @@
   </si>
   <si>
     <t>Lubsza</t>
+  </si>
+  <si>
+    <t>Bolesławiec (M)</t>
+  </si>
+  <si>
+    <t>Bolesławiec (W)</t>
+  </si>
+  <si>
+    <t>Bielawa</t>
+  </si>
+  <si>
+    <t>Warta Bolesławiecka</t>
+  </si>
+  <si>
+    <t>Osiecznica</t>
+  </si>
+  <si>
+    <t>Nowogrodziec</t>
+  </si>
+  <si>
+    <t>Gromadka</t>
+  </si>
+  <si>
+    <t>Dzierżoniów (W)</t>
+  </si>
+  <si>
+    <t>Piława Górna</t>
+  </si>
+  <si>
+    <t>Dzierżoniów (M)</t>
+  </si>
+  <si>
+    <t>Pieszyce</t>
+  </si>
+  <si>
+    <t>Głogów (M)</t>
+  </si>
+  <si>
+    <t>Niemcza</t>
+  </si>
+  <si>
+    <t>Łagiewniki</t>
+  </si>
+  <si>
+    <t>Jemielno</t>
+  </si>
+  <si>
+    <t>Góra</t>
+  </si>
+  <si>
+    <t>Żukowice</t>
+  </si>
+  <si>
+    <t>Pęcław</t>
+  </si>
+  <si>
+    <t>Kotla</t>
+  </si>
+  <si>
+    <t>Jerzmanowa</t>
+  </si>
+  <si>
+    <t>Głogów (W)</t>
+  </si>
+  <si>
+    <t>Męcinka</t>
+  </si>
+  <si>
+    <t>Bolków</t>
+  </si>
+  <si>
+    <t>Jawor</t>
+  </si>
+  <si>
+    <t>Wąsosz</t>
+  </si>
+  <si>
+    <t>Niechlów</t>
+  </si>
+  <si>
+    <t>Kowary</t>
+  </si>
+  <si>
+    <t>Karpacz</t>
+  </si>
+  <si>
+    <t>Wądroże Wielkie</t>
+  </si>
+  <si>
+    <t>Paszowice</t>
+  </si>
+  <si>
+    <t>Mściwojów</t>
+  </si>
+  <si>
+    <t>Mysłakowice</t>
+  </si>
+  <si>
+    <t>Jeżów Sudecki</t>
+  </si>
+  <si>
+    <t>Janowice Wielkie</t>
+  </si>
+  <si>
+    <t>Szklarska Poręba</t>
+  </si>
+  <si>
+    <t>Piechowice</t>
+  </si>
+  <si>
+    <t>Lubawka</t>
+  </si>
+  <si>
+    <t>Kamienna Góra (W)</t>
+  </si>
+  <si>
+    <t>Kamienna Góra (M)</t>
+  </si>
+  <si>
+    <t>Stara Kamienica</t>
+  </si>
+  <si>
+    <t>Podgórzyn</t>
+  </si>
+  <si>
+    <t>Kudowa-Zdrój</t>
+  </si>
+  <si>
+    <t>Duszniki-Zdrój</t>
+  </si>
+  <si>
+    <t>Marciszów</t>
+  </si>
+  <si>
+    <t>Bystrzyca Kłodzka</t>
+  </si>
+  <si>
+    <t>Polanica-Zdrój</t>
+  </si>
+  <si>
+    <t>Kłodzko (M)</t>
+  </si>
+  <si>
+    <t>Kłodzko (W)</t>
+  </si>
+  <si>
+    <t>Radków</t>
+  </si>
+  <si>
+    <t>Nowa Ruda (W)</t>
+  </si>
+  <si>
+    <t>Międzylesie</t>
+  </si>
+  <si>
+    <t>Lewin Kłodzki</t>
+  </si>
+  <si>
+    <t>Lądek-Zdrój</t>
+  </si>
+  <si>
+    <t>Nowa Ruda (M)</t>
+  </si>
+  <si>
+    <t>Krotoszyce</t>
+  </si>
+  <si>
+    <t>Chojnów (W)</t>
+  </si>
+  <si>
+    <t>Chojnów (M)</t>
+  </si>
+  <si>
+    <t>Szczytna</t>
+  </si>
+  <si>
+    <t>Stronie Śląskie</t>
+  </si>
+  <si>
+    <t>Lubań (M)</t>
+  </si>
+  <si>
+    <t>Ruja</t>
+  </si>
+  <si>
+    <t>Prochowice</t>
+  </si>
+  <si>
+    <t>Miłkowice</t>
+  </si>
+  <si>
+    <t>Legnickie Pole</t>
+  </si>
+  <si>
+    <t>Kunice</t>
+  </si>
+  <si>
+    <t>Siekierczyn</t>
+  </si>
+  <si>
+    <t>Platerówka</t>
+  </si>
+  <si>
+    <t>Olszyna</t>
+  </si>
+  <si>
+    <t>Lubań (W)</t>
+  </si>
+  <si>
+    <t>Leśna</t>
+  </si>
+  <si>
+    <t>Świeradów-Zdrój</t>
+  </si>
+  <si>
+    <t>Lubin (W)</t>
+  </si>
+  <si>
+    <t>Lubin (M)</t>
+  </si>
+  <si>
+    <t>Mirsk</t>
+  </si>
+  <si>
+    <t>Lwówek Śląski</t>
+  </si>
+  <si>
+    <t>Lubomierz</t>
+  </si>
+  <si>
+    <t>Gryfów Śląski</t>
+  </si>
+  <si>
+    <t>Ścinawa</t>
+  </si>
+  <si>
+    <t>Rudna</t>
+  </si>
+  <si>
+    <t>Wleń</t>
+  </si>
+  <si>
+    <t>Milicz</t>
+  </si>
+  <si>
+    <t>Krośnice</t>
+  </si>
+  <si>
+    <t>Cieszków</t>
+  </si>
+  <si>
+    <t>Oleśnica (M)</t>
+  </si>
+  <si>
+    <t>Oleśnica (W)</t>
+  </si>
+  <si>
+    <t>Międzybórz</t>
+  </si>
+  <si>
+    <t>Dziadowa Kłoda</t>
+  </si>
+  <si>
+    <t>Dobroszyce</t>
+  </si>
+  <si>
+    <t>Bierutów</t>
+  </si>
+  <si>
+    <t>Oława (M)</t>
+  </si>
+  <si>
+    <t>Twardogóra</t>
+  </si>
+  <si>
+    <t>Syców</t>
+  </si>
+  <si>
+    <t>Chocianów</t>
+  </si>
+  <si>
+    <t>Oława (W)</t>
+  </si>
+  <si>
+    <t>Jelcz-Laskowice</t>
+  </si>
+  <si>
+    <t>Domaniów</t>
+  </si>
+  <si>
+    <t>Gaworzyce</t>
+  </si>
+  <si>
+    <t>Radwanice</t>
+  </si>
+  <si>
+    <t>Przemków</t>
+  </si>
+  <si>
+    <t>Polkowice</t>
+  </si>
+  <si>
+    <t>Grębocice</t>
+  </si>
+  <si>
+    <t>Wiązów</t>
+  </si>
+  <si>
+    <t>Strzelin</t>
+  </si>
+  <si>
+    <t>Przeworno</t>
+  </si>
+  <si>
+    <t>Kondratowice</t>
+  </si>
+  <si>
+    <t>Borów</t>
+  </si>
+  <si>
+    <t>Środa Śląska</t>
+  </si>
+  <si>
+    <t>Miękinia</t>
+  </si>
+  <si>
+    <t>Malczyce</t>
+  </si>
+  <si>
+    <t>Kostomłoty</t>
+  </si>
+  <si>
+    <t>Świebodzice</t>
+  </si>
+  <si>
+    <t>Świdnica (M)</t>
+  </si>
+  <si>
+    <t>Udanin</t>
+  </si>
+  <si>
+    <t>Świdnica (W)</t>
+  </si>
+  <si>
+    <t>Strzegom</t>
+  </si>
+  <si>
+    <t>Marcinowice</t>
+  </si>
+  <si>
+    <t>Jaworzyna Śląska</t>
+  </si>
+  <si>
+    <t>Dobromierz</t>
+  </si>
+  <si>
+    <t>Trzebnica</t>
+  </si>
+  <si>
+    <t>Prusice</t>
+  </si>
+  <si>
+    <t>Oborniki Śląskie</t>
+  </si>
+  <si>
+    <t>Żarów</t>
+  </si>
+  <si>
+    <t>Jedlina-Zdrój</t>
+  </si>
+  <si>
+    <t>Boguszów-Gorce</t>
+  </si>
+  <si>
+    <t>Żmigród</t>
+  </si>
+  <si>
+    <t>Zawonia</t>
+  </si>
+  <si>
+    <t>Wisznia Mała</t>
+  </si>
+  <si>
+    <t>Walim</t>
+  </si>
+  <si>
+    <t>Stare Bogaczowice</t>
+  </si>
+  <si>
+    <t>Mieroszów</t>
+  </si>
+  <si>
+    <t>Głuszyca</t>
+  </si>
+  <si>
+    <t>Czarny Bór</t>
+  </si>
+  <si>
+    <t>Szczawno-Zdrój</t>
+  </si>
+  <si>
+    <t>Wołów</t>
+  </si>
+  <si>
+    <t>Wińsko</t>
+  </si>
+  <si>
+    <t>Brzeg Dolny</t>
+  </si>
+  <si>
+    <t>Czernica</t>
+  </si>
+  <si>
+    <t>Kąty Wrocławskie</t>
+  </si>
+  <si>
+    <t>Jordanów Śląski</t>
+  </si>
+  <si>
+    <t>Długołęka</t>
+  </si>
+  <si>
+    <t>Siechnice</t>
+  </si>
+  <si>
+    <t>Sobótka</t>
+  </si>
+  <si>
+    <t>Mietków</t>
+  </si>
+  <si>
+    <t>Kobierzyce</t>
+  </si>
+  <si>
+    <t>Stoszowice</t>
+  </si>
+  <si>
+    <t>Kamieniec Ząbkowicki</t>
+  </si>
+  <si>
+    <t>Ciepłowody</t>
+  </si>
+  <si>
+    <t>Bardo</t>
+  </si>
+  <si>
+    <t>Żórawina</t>
+  </si>
+  <si>
+    <t>Zgorzelec (M)</t>
+  </si>
+  <si>
+    <t>Zawidów</t>
+  </si>
+  <si>
+    <t>Złoty Stok</t>
+  </si>
+  <si>
+    <t>Ziębice</t>
+  </si>
+  <si>
+    <t>Ząbkowice Śląskie</t>
+  </si>
+  <si>
+    <t>Zgorzelec (W)</t>
+  </si>
+  <si>
+    <t>Węgliniec</t>
+  </si>
+  <si>
+    <t>Sulików</t>
+  </si>
+  <si>
+    <t>Pieńsk</t>
+  </si>
+  <si>
+    <t>Bogatynia</t>
+  </si>
+  <si>
+    <t>Złotoryja (W)</t>
+  </si>
+  <si>
+    <t>Zagrodno</t>
+  </si>
+  <si>
+    <t>Pielgrzymka</t>
+  </si>
+  <si>
+    <t>Złotoryja (M)</t>
+  </si>
+  <si>
+    <t>Świerzawa</t>
+  </si>
+  <si>
+    <t>Wojcieszów</t>
+  </si>
+  <si>
+    <t>Jelenia Góra</t>
+  </si>
+  <si>
+    <t>Legnica</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
+  </si>
+  <si>
+    <t>Wałbrzych</t>
   </si>
 </sst>
 </file>
@@ -904,7 +1412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,6 +1426,7 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="60% — akcent 4" xfId="2" builtinId="44"/>
@@ -3674,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A69049D-BB2F-4A0F-94C1-A61AC03971DB}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
@@ -4699,4 +5208,2435 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A63B39-C69D-416A-A8CF-20728259E8DF}">
+  <dimension ref="A1:D175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="3">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37559</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.7274687824489471E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15030</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5156</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14843</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7339</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8508</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28896</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>31866</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9108</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6126</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9228</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7268</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5229</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="2">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>64261</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6949</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5495</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4389</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2139</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3435</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18966</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2824</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4640</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6887</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21494</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9895</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5089</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4054</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4120</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3851</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4457</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10217</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5952</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5933</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4122</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7707</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9870</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" s="3">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3">
+        <v>8213</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="3">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5274</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>17998</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8867</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10426</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4369</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="3">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4240</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="3">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3">
+        <v>25717</v>
+      </c>
+      <c r="D45" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>9627</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="3">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3">
+        <v>21264</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="3">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6230</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="3">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3">
+        <v>17892</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" s="3">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3">
+        <v>16774</v>
+      </c>
+      <c r="D50" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>7767</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1968</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6925</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>10915</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>8647</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>6997</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6999</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>12769</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>9547</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3296</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>7344</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5214</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>7078</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7302</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2455</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>20096</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4094</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>9604</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6516</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>6432</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1557</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4469</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="3">
+        <v>35</v>
+      </c>
+      <c r="C73" s="3">
+        <v>70016</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4.9988574040219377E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" s="3">
+        <v>13</v>
+      </c>
+      <c r="C74" s="3">
+        <v>17430</v>
+      </c>
+      <c r="D74" s="4">
+        <v>7.4584050487664949E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>7477</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>9519</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>9403</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5737</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>16555</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>8218</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3991</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4596</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>7978</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>23536</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="3">
+        <v>27</v>
+      </c>
+      <c r="C85" s="3">
+        <v>35856</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>9583</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>7058</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4579</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>5087</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B90" s="3">
+        <v>13</v>
+      </c>
+      <c r="C90" s="3">
+        <v>15309</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>16530</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>12671</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93" s="3">
+        <v>22</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33268</v>
+      </c>
+      <c r="D93" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>4998</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B95" s="3">
+        <v>11</v>
+      </c>
+      <c r="C95" s="3">
+        <v>23671</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96" s="3">
+        <v>13</v>
+      </c>
+      <c r="C96" s="3">
+        <v>15475</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>12569</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3824</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5254</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>27009</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>8026</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4848</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5098</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3">
+        <v>4076</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4632</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B106" s="3">
+        <v>12</v>
+      </c>
+      <c r="C106" s="3">
+        <v>21579</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3">
+        <v>7035</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3">
+        <v>7249</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3">
+        <v>5765</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B110" s="3">
+        <v>36</v>
+      </c>
+      <c r="C110" s="3">
+        <v>19818</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <v>19851</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4961</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B113" s="3">
+        <v>32</v>
+      </c>
+      <c r="C113" s="3">
+        <v>54792</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>22219</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5018</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116" s="3">
+        <v>10230</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6313</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <v>24793</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>17704</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>12279</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B121" s="3">
+        <v>34</v>
+      </c>
+      <c r="C121" s="3">
+        <v>20865</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3">
+        <v>9357</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" s="3">
+        <v>21</v>
+      </c>
+      <c r="C123" s="3">
+        <v>24890</v>
+      </c>
+      <c r="D123" s="4">
+        <v>8.4371233427079154E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3">
+        <v>11609</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3">
+        <v>5825</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126" s="3">
+        <v>14371</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127" s="3">
+        <v>14648</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128" s="3">
+        <v>4792</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5362</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3">
+        <v>4812</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3">
+        <v>8288</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>6369</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4261</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+      <c r="C134" s="3">
+        <v>5397</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3">
+        <v>16358</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3">
+        <v>8019</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="3">
+        <v>21902</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B138" s="3">
+        <v>53</v>
+      </c>
+      <c r="C138" s="3">
+        <v>21174</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B139" s="3">
+        <v>89</v>
+      </c>
+      <c r="C139" s="3">
+        <v>41052</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3277</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B141" s="3">
+        <v>55</v>
+      </c>
+      <c r="C141" s="3">
+        <v>28756</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B142" s="3">
+        <v>49</v>
+      </c>
+      <c r="C142" s="3">
+        <v>23819</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3886</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="3">
+        <v>12981</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B145" s="3">
+        <v>58</v>
+      </c>
+      <c r="C145" s="3">
+        <v>27865</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B146" s="3">
+        <v>27</v>
+      </c>
+      <c r="C146" s="3">
+        <v>12882</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147" s="3">
+        <v>5162</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3023</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149" s="3">
+        <v>7687</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150" s="3">
+        <v>5253</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151" s="3">
+        <v>20989</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152" s="3">
+        <v>16006</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+      <c r="C153" s="3">
+        <v>4194</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>3938</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B155" s="3">
+        <v>14</v>
+      </c>
+      <c r="C155" s="3">
+        <v>29966</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156" s="3">
+        <v>22048</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+      <c r="C157" s="3">
+        <v>8899</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+      <c r="C158" s="3">
+        <v>5934</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+      <c r="C159" s="3">
+        <v>7992</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+      <c r="C160" s="3">
+        <v>8594</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="3">
+        <v>3486</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162" s="3">
+        <v>14656</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163" s="3">
+        <v>4371</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164" s="3">
+        <v>7208</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="C165" s="3">
+        <v>4954</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166" s="3">
+        <v>6937</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B167" s="3">
+        <v>60</v>
+      </c>
+      <c r="C167" s="3">
+        <v>77305</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B168" s="3">
+        <v>66</v>
+      </c>
+      <c r="C168" s="3">
+        <v>94878</v>
+      </c>
+      <c r="D168" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B169" s="3">
+        <v>2744</v>
+      </c>
+      <c r="C169" s="3">
+        <v>672929</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B170" s="3">
+        <v>55</v>
+      </c>
+      <c r="C170" s="3">
+        <v>104401</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Silesians-Data.xlsx
+++ b/Silesians-Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\maps-of-ethnicities-in-poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E61DF2-0549-494A-9F2A-5E0514CDDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC23AC8-7BAB-4631-905D-02D37B256712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24420" yWindow="11280" windowWidth="7740" windowHeight="7500" activeTab="2" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Śląskie" sheetId="1" r:id="rId1"/>
     <sheet name="Opolskie" sheetId="2" r:id="rId2"/>
     <sheet name="Dolnośląskie" sheetId="3" r:id="rId3"/>
+    <sheet name="Lubuskie" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="492">
   <si>
     <t>Gmina</t>
   </si>
@@ -1271,6 +1272,249 @@
   </si>
   <si>
     <t>Wałbrzych</t>
+  </si>
+  <si>
+    <t>Kostrzyn nad Odrą</t>
+  </si>
+  <si>
+    <t>Bogdaniec</t>
+  </si>
+  <si>
+    <t>Deszczno</t>
+  </si>
+  <si>
+    <t>Kłodawa</t>
+  </si>
+  <si>
+    <t>Lubiszyn</t>
+  </si>
+  <si>
+    <t>Dąbie</t>
+  </si>
+  <si>
+    <t>Bytnica</t>
+  </si>
+  <si>
+    <t>Bobrowice</t>
+  </si>
+  <si>
+    <t>Witnica</t>
+  </si>
+  <si>
+    <t>Santok</t>
+  </si>
+  <si>
+    <t>Gubin (M)</t>
+  </si>
+  <si>
+    <t>Bledzew</t>
+  </si>
+  <si>
+    <t>Maszewo</t>
+  </si>
+  <si>
+    <t>Krosno Odrzańskie</t>
+  </si>
+  <si>
+    <t>Gubin (W)</t>
+  </si>
+  <si>
+    <t>Międzyrzecz</t>
+  </si>
+  <si>
+    <t>Nowa Sól (M)</t>
+  </si>
+  <si>
+    <t>Trzciel</t>
+  </si>
+  <si>
+    <t>Skwierzyna</t>
+  </si>
+  <si>
+    <t>Pszczew</t>
+  </si>
+  <si>
+    <t>Przytoczna</t>
+  </si>
+  <si>
+    <t>Otyń</t>
+  </si>
+  <si>
+    <t>Nowe Miasteczko</t>
+  </si>
+  <si>
+    <t>Nowa Sól (W)</t>
+  </si>
+  <si>
+    <t>Kożuchów</t>
+  </si>
+  <si>
+    <t>Kolsko</t>
+  </si>
+  <si>
+    <t>Bytom Odrzański</t>
+  </si>
+  <si>
+    <t>Słubice</t>
+  </si>
+  <si>
+    <t>Rzepin</t>
+  </si>
+  <si>
+    <t>Ośno Lubuskie</t>
+  </si>
+  <si>
+    <t>Górzyca</t>
+  </si>
+  <si>
+    <t>Cybinka</t>
+  </si>
+  <si>
+    <t>Siedlisko</t>
+  </si>
+  <si>
+    <t>Krzeszyce</t>
+  </si>
+  <si>
+    <t>Zwierzyn</t>
+  </si>
+  <si>
+    <t>Strzelce Krajeńskie</t>
+  </si>
+  <si>
+    <t>Stare Kurowo</t>
+  </si>
+  <si>
+    <t>Drezdenko</t>
+  </si>
+  <si>
+    <t>Dobiegniew</t>
+  </si>
+  <si>
+    <t>Łagów</t>
+  </si>
+  <si>
+    <t>Torzym</t>
+  </si>
+  <si>
+    <t>Sulęcin</t>
+  </si>
+  <si>
+    <t>Słońsk</t>
+  </si>
+  <si>
+    <t>Lubniewice</t>
+  </si>
+  <si>
+    <t>Babimost</t>
+  </si>
+  <si>
+    <t>Zbąszynek</t>
+  </si>
+  <si>
+    <t>Świebodzin</t>
+  </si>
+  <si>
+    <t>Szczaniec</t>
+  </si>
+  <si>
+    <t>Skąpe</t>
+  </si>
+  <si>
+    <t>Sulechów</t>
+  </si>
+  <si>
+    <t>Nowogród Bobrzański</t>
+  </si>
+  <si>
+    <t>Kargowa</t>
+  </si>
+  <si>
+    <t>Czerwieńsk</t>
+  </si>
+  <si>
+    <t>Bojadła</t>
+  </si>
+  <si>
+    <t>Żagań (M)</t>
+  </si>
+  <si>
+    <t>Gozdnica</t>
+  </si>
+  <si>
+    <t>Zabór</t>
+  </si>
+  <si>
+    <t>Trzebiechów</t>
+  </si>
+  <si>
+    <t>Świdnica</t>
+  </si>
+  <si>
+    <t>Wymiarki</t>
+  </si>
+  <si>
+    <t>Szprotawa</t>
+  </si>
+  <si>
+    <t>Niegosławice</t>
+  </si>
+  <si>
+    <t>Małomice</t>
+  </si>
+  <si>
+    <t>Iłowa</t>
+  </si>
+  <si>
+    <t>Brzeźnica</t>
+  </si>
+  <si>
+    <t>Żagań (W)</t>
+  </si>
+  <si>
+    <t>Jasień</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Żary (M)</t>
+  </si>
+  <si>
+    <t>Łęknica</t>
+  </si>
+  <si>
+    <t>Żary (W)</t>
+  </si>
+  <si>
+    <t>Tuplice</t>
+  </si>
+  <si>
+    <t>Trzebiel</t>
+  </si>
+  <si>
+    <t>Przewóz</t>
+  </si>
+  <si>
+    <t>Lubsko</t>
+  </si>
+  <si>
+    <t>Lipniki Łużyckie</t>
+  </si>
+  <si>
+    <t>Gorzów Wielkopolski</t>
+  </si>
+  <si>
+    <t>Wschowa</t>
+  </si>
+  <si>
+    <t>Szlichtyngowa</t>
+  </si>
+  <si>
+    <t>Sława</t>
+  </si>
+  <si>
+    <t>Zielona Góra</t>
   </si>
 </sst>
 </file>
@@ -5212,9 +5456,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A63B39-C69D-416A-A8CF-20728259E8DF}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
@@ -7606,35 +7850,1710 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E776DD-56B1-4CCC-9D51-AB2440430817}">
+  <dimension ref="A1:D170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17899</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7111</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10231</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8926</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6975</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9131</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12291</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16114</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3118</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2352</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4956</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7178</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>17333</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2768</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4065</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>24233</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5429</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4246</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11764</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6322</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>36843</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5170</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3290</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15473</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7138</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5138</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6972</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3367</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6380</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4156</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6235</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9507</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>20100</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6333</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>16716</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3954</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>16549</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4201</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4593</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3055</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4746</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>15435</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6453</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3583</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4842</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5127</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3729</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>29479</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8089</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6102</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3223</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10026</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5933</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>9128</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>26100</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6800</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3226</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4530</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2847</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B61" s="3">
+        <v>17</v>
+      </c>
+      <c r="C61" s="3">
+        <v>24424</v>
+      </c>
+      <c r="D61" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3559</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6530</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5183</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4285</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>19711</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2156</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>7128</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2324</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B70" s="3">
+        <v>17</v>
+      </c>
+      <c r="C70" s="3">
+        <v>36004</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3246</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6857</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3283</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>17725</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3054</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5549</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2980</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>12339</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>12528</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>4862</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>20510</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82" s="3">
+        <v>43</v>
+      </c>
+      <c r="C82" s="3">
+        <v>119964</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B83" s="3">
+        <v>81</v>
+      </c>
+      <c r="C83" s="3">
+        <v>140002</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
